--- a/biology/Zoologie/Ambystoma_talpoideum/Ambystoma_talpoideum.xlsx
+++ b/biology/Zoologie/Ambystoma_talpoideum/Ambystoma_talpoideum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma talpoideum est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma talpoideum est une espèce d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis[1]. Elle se rencontre en Floride, en Géorgie, en Caroline du Nord, en Caroline du Sud, en Virginie, au Kentucky, dans le sud de l'Indiana, dans le Sud de l'Illinois, dans le Sud-Est du Missouri, au Tennessee, en Alabama, au Mississippi, en Louisiane, en Arkansas, dans l'est de l'Oklahoma et dans l'Est du Texas.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est des États-Unis. Elle se rencontre en Floride, en Géorgie, en Caroline du Nord, en Caroline du Sud, en Virginie, au Kentucky, dans le sud de l'Indiana, dans le Sud de l'Illinois, dans le Sud-Est du Missouri, au Tennessee, en Alabama, au Mississippi, en Louisiane, en Arkansas, dans l'est de l'Oklahoma et dans l'Est du Texas.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes métamorphosés mesurent de 36 à 66 mm sans la queue et de 66 à 116 mm de longueur totale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes métamorphosés mesurent de 36 à 66 mm sans la queue et de 66 à 116 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Holbrook, 1838 : North American Herpetology, or Description of the Reptiles Inhabiting the United States, vol. 3, p. 1-122 (texte intégral).</t>
         </is>
